--- a/TracesLength.xlsx
+++ b/TracesLength.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\UNI\7pusmetis\Semestro projektas\FusionVision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4009FB-254A-48FB-BC35-CB165A82F8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F46A75B-A138-4057-A136-80CA90C56BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -645,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -656,13 +656,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -945,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -955,6 +952,7 @@
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -970,19 +968,16 @@
       <c r="D1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -995,19 +990,16 @@
       <c r="D2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1020,19 +1012,16 @@
       <c r="D3" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -1045,18 +1034,16 @@
       <c r="D4" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -1069,28 +1056,28 @@
       <c r="D5" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" t="s">
         <v>136</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -1105,30 +1092,30 @@
       <c r="D6" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="11">
-        <v>34.1</v>
-      </c>
-      <c r="F6" s="11">
-        <v>30</v>
+      <c r="E6">
+        <v>49</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
       </c>
       <c r="G6">
-        <f>C6+E6+F6</f>
-        <v>115.129</v>
+        <f t="shared" ref="G6:G16" si="0">C6+E6+F6</f>
+        <v>115.029</v>
       </c>
       <c r="H6">
         <f>E6+F6</f>
-        <v>64.099999999999994</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -1143,30 +1130,30 @@
       <c r="D7" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7">
         <v>37.700000000000003</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7">
         <v>20</v>
       </c>
       <c r="G7">
-        <f>C7+E7+F7</f>
+        <f t="shared" si="0"/>
         <v>115.023</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H28" si="0">E7+F7</f>
+        <f t="shared" ref="H7:H28" si="1">E7+F7</f>
         <v>57.7</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -1181,30 +1168,30 @@
       <c r="D8" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8">
         <v>47</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8">
         <v>10</v>
       </c>
       <c r="G8">
-        <f>C8+E8+F8</f>
+        <f t="shared" si="0"/>
         <v>111.961</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
     </row>
     <row r="9" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -1219,30 +1206,30 @@
       <c r="D9" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9">
         <v>45</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9">
         <v>20</v>
       </c>
       <c r="G9">
-        <f>C9+E9+F9</f>
+        <f t="shared" si="0"/>
         <v>115.59</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
     </row>
     <row r="10" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -1257,30 +1244,30 @@
       <c r="D10" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10">
         <v>42</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10">
         <v>35</v>
       </c>
       <c r="G10">
-        <f>C10+E10+F10</f>
+        <f t="shared" si="0"/>
         <v>114.051</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
     </row>
     <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -1298,27 +1285,27 @@
       <c r="E11">
         <v>35.6</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <f>C11+E11+F11</f>
+        <f t="shared" si="0"/>
         <v>126.33799999999999</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.6</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1333,30 +1320,30 @@
       <c r="D12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12">
         <v>40</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <f>C12+E12+F12</f>
+        <f t="shared" si="0"/>
         <v>115.47</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -1371,30 +1358,30 @@
       <c r="D13" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13">
         <v>42.2</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <f>C13+E13+F13</f>
+        <f t="shared" si="0"/>
         <v>114.488</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42.2</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -1409,30 +1396,30 @@
       <c r="D14" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14">
         <v>36.299999999999997</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14">
         <v>30</v>
       </c>
       <c r="G14">
-        <f>C14+E14+F14</f>
+        <f t="shared" si="0"/>
         <v>115.66200000000001</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66.3</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -1447,30 +1434,30 @@
       <c r="D15" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15">
         <v>34.1</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15">
         <v>40</v>
       </c>
       <c r="G15">
-        <f>C15+E15+F15</f>
+        <f t="shared" si="0"/>
         <v>116.688</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74.099999999999994</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -1485,30 +1472,30 @@
       <c r="D16" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16">
         <v>31</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16">
         <v>50</v>
       </c>
       <c r="G16">
-        <f>C16+E16+F16</f>
+        <f t="shared" si="0"/>
         <v>110.489</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
     </row>
     <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1523,30 +1510,30 @@
       <c r="D17" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="10">
         <v>32</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <v>0</v>
       </c>
-      <c r="G17" s="14">
-        <f t="shared" ref="G17:G28" si="1">C17+E17+F17</f>
+      <c r="G17" s="10">
+        <f t="shared" ref="G17:G28" si="2">C17+E17+F17</f>
         <v>153.94499999999999</v>
       </c>
-      <c r="H17" s="14">
-        <f t="shared" si="0"/>
+      <c r="H17" s="10">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
     </row>
     <row r="18" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -1561,30 +1548,30 @@
       <c r="D18" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="10">
         <v>16.5</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="10">
         <v>100</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="10">
+        <f t="shared" si="2"/>
+        <v>143.602</v>
+      </c>
+      <c r="H18" s="10">
         <f t="shared" si="1"/>
-        <v>143.602</v>
-      </c>
-      <c r="H18" s="14">
-        <f t="shared" si="0"/>
         <v>116.5</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
     </row>
     <row r="19" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -1599,30 +1586,30 @@
       <c r="D19" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="10">
         <v>16</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="10">
         <v>100</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="10">
+        <f t="shared" si="2"/>
+        <v>146.91</v>
+      </c>
+      <c r="H19" s="10">
         <f t="shared" si="1"/>
-        <v>146.91</v>
-      </c>
-      <c r="H19" s="14">
-        <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
     </row>
     <row r="20" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -1637,30 +1624,30 @@
       <c r="D20" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="10">
         <v>67</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="10">
         <v>0</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="10">
+        <f t="shared" si="2"/>
+        <v>151.81200000000001</v>
+      </c>
+      <c r="H20" s="10">
         <f t="shared" si="1"/>
-        <v>151.81200000000001</v>
-      </c>
-      <c r="H20" s="14">
-        <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1675,30 +1662,30 @@
       <c r="D21" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="10">
         <v>72</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="10">
         <v>0</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="10">
+        <f t="shared" si="2"/>
+        <v>144.39400000000001</v>
+      </c>
+      <c r="H21" s="10">
         <f t="shared" si="1"/>
-        <v>144.39400000000001</v>
-      </c>
-      <c r="H21" s="14">
-        <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -1713,30 +1700,30 @@
       <c r="D22" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="10">
         <v>37</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="10">
         <v>70</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="10">
+        <f t="shared" si="2"/>
+        <v>145.43799999999999</v>
+      </c>
+      <c r="H22" s="10">
         <f t="shared" si="1"/>
-        <v>145.43799999999999</v>
-      </c>
-      <c r="H22" s="14">
-        <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
     </row>
     <row r="23" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -1751,30 +1738,30 @@
       <c r="D23" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="10">
         <v>31</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="10">
         <v>80</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="10">
+        <f t="shared" si="2"/>
+        <v>148.75700000000001</v>
+      </c>
+      <c r="H23" s="10">
         <f t="shared" si="1"/>
-        <v>148.75700000000001</v>
-      </c>
-      <c r="H23" s="14">
-        <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
     </row>
     <row r="24" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -1789,30 +1776,30 @@
       <c r="D24" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="10">
         <v>53</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="10">
         <v>0</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="10">
+        <f t="shared" si="2"/>
+        <v>172.58499999999998</v>
+      </c>
+      <c r="H24" s="10">
         <f t="shared" si="1"/>
-        <v>172.58499999999998</v>
-      </c>
-      <c r="H24" s="14">
-        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
     </row>
     <row r="25" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -1827,30 +1814,30 @@
       <c r="D25" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="10">
         <v>33.6</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="10">
         <v>60</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="10">
+        <f t="shared" si="2"/>
+        <v>142.15800000000002</v>
+      </c>
+      <c r="H25" s="10">
         <f t="shared" si="1"/>
-        <v>142.15800000000002</v>
-      </c>
-      <c r="H25" s="14">
-        <f t="shared" si="0"/>
         <v>93.6</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
     </row>
     <row r="26" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -1865,30 +1852,30 @@
       <c r="D26" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="10">
         <v>8</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="10">
         <v>120</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="10">
+        <f t="shared" si="2"/>
+        <v>142.2321</v>
+      </c>
+      <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>142.2321</v>
-      </c>
-      <c r="H26" s="14">
-        <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
     </row>
     <row r="27" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
@@ -1903,30 +1890,30 @@
       <c r="D27" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="10">
         <v>13</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="10">
         <v>90</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="10">
+        <f t="shared" si="2"/>
+        <v>140.87700000000001</v>
+      </c>
+      <c r="H27" s="10">
         <f t="shared" si="1"/>
-        <v>140.87700000000001</v>
-      </c>
-      <c r="H27" s="14">
-        <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
     </row>
     <row r="28" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
@@ -1941,30 +1928,30 @@
       <c r="D28" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="10">
         <v>15</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="10">
         <v>110</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="10">
+        <f t="shared" si="2"/>
+        <v>145.227</v>
+      </c>
+      <c r="H28" s="10">
         <f t="shared" si="1"/>
-        <v>145.227</v>
-      </c>
-      <c r="H28" s="14">
-        <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
     </row>
     <row r="29" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -1979,19 +1966,16 @@
       <c r="D29" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
     </row>
     <row r="30" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -2006,19 +1990,16 @@
       <c r="D30" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
     </row>
     <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
@@ -2031,19 +2012,16 @@
       <c r="D31" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
     </row>
     <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
@@ -2058,19 +2036,16 @@
       <c r="D32" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
     </row>
     <row r="33" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
@@ -2083,19 +2058,16 @@
       <c r="D33" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
     </row>
     <row r="34" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
@@ -2108,19 +2080,16 @@
       <c r="D34" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
     </row>
     <row r="35" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
@@ -2133,19 +2102,16 @@
       <c r="D35" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
     </row>
     <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
@@ -2160,19 +2126,16 @@
       <c r="D36" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
     </row>
     <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2187,19 +2150,16 @@
       <c r="D37" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
     </row>
     <row r="38" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
@@ -2212,19 +2172,16 @@
       <c r="D38" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
     </row>
     <row r="39" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
@@ -2237,19 +2194,16 @@
       <c r="D39" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
     </row>
     <row r="40" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
@@ -2262,19 +2216,16 @@
       <c r="D40" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
     </row>
     <row r="41" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
@@ -2287,19 +2238,16 @@
       <c r="D41" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
     </row>
     <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -2314,19 +2262,16 @@
       <c r="D42" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
     </row>
     <row r="43" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
@@ -2341,19 +2286,16 @@
       <c r="D43" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
     </row>
     <row r="44" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
@@ -2368,19 +2310,16 @@
       <c r="D44" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
     </row>
     <row r="45" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
@@ -2395,19 +2334,16 @@
       <c r="D45" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
     </row>
     <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
@@ -2422,19 +2358,16 @@
       <c r="D46" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
     </row>
     <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
@@ -2449,19 +2382,16 @@
       <c r="D47" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
     </row>
     <row r="48" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
@@ -2476,19 +2406,16 @@
       <c r="D48" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
     </row>
     <row r="49" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
@@ -2503,19 +2430,16 @@
       <c r="D49" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
     </row>
     <row r="50" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
@@ -2528,19 +2452,16 @@
       <c r="D50" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
@@ -2553,19 +2474,16 @@
       <c r="D51" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
     </row>
     <row r="52" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
@@ -2578,19 +2496,16 @@
       <c r="D52" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
     </row>
     <row r="53" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -2603,19 +2518,16 @@
       <c r="D53" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
     </row>
     <row r="54" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
@@ -2628,19 +2540,16 @@
       <c r="D54" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
     </row>
     <row r="55" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
@@ -2653,19 +2562,16 @@
       <c r="D55" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
     </row>
     <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -2678,19 +2584,16 @@
       <c r="D56" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
     </row>
     <row r="57" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
@@ -2703,319 +2606,316 @@
       <c r="D57" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
     </row>
     <row r="58" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
     </row>
     <row r="59" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
     </row>
     <row r="60" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
     </row>
     <row r="61" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
     </row>
     <row r="62" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
     </row>
     <row r="63" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
     </row>
     <row r="64" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="10"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
     </row>
     <row r="65" spans="9:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
     </row>
     <row r="66" spans="9:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
     </row>
     <row r="67" spans="9:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
     </row>
     <row r="68" spans="9:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
     </row>
     <row r="69" spans="9:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
     </row>
     <row r="70" spans="9:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="10"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
     </row>
     <row r="71" spans="9:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
     </row>
     <row r="72" spans="9:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="10"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
     </row>
     <row r="73" spans="9:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="10"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
     </row>
     <row r="74" spans="9:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="10"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
     </row>
     <row r="75" spans="9:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="10"/>
-      <c r="R75" s="10"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
     </row>
     <row r="76" spans="9:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="10"/>
-      <c r="R76" s="10"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
     </row>
     <row r="77" spans="9:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="10"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
     </row>
     <row r="78" spans="9:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="10"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
     </row>
     <row r="79" spans="9:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="10"/>
-      <c r="P79" s="10"/>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="10"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
     </row>
     <row r="80" spans="9:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="10"/>
-      <c r="R80" s="10"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
     </row>
     <row r="81" spans="9:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="10"/>
-      <c r="O81" s="10"/>
-      <c r="P81" s="10"/>
-      <c r="Q81" s="10"/>
-      <c r="R81" s="10"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
     </row>
     <row r="82" spans="9:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="10"/>
-      <c r="R82" s="10"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D57" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/TracesLength.xlsx
+++ b/TracesLength.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\UNI\7pusmetis\Semestro projektas\FusionVision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F46A75B-A138-4057-A136-80CA90C56BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D480D1F-D54F-4A21-B3E3-DEC170737180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TracesLength.xlsx
+++ b/TracesLength.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\UNI\7pusmetis\Semestro projektas\FusionVision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D480D1F-D54F-4A21-B3E3-DEC170737180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3387D4-FFF0-416E-B036-5D38B4F0762E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,7 +943,7 @@
   <dimension ref="A1:R82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1099,7 +1099,7 @@
         <v>15</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G16" si="0">C6+E6+F6</f>
+        <f>C6+E6+F6</f>
         <v>115.029</v>
       </c>
       <c r="H6">
@@ -1137,7 +1137,7 @@
         <v>20</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G6:G16" si="0">C7+E7+F7</f>
         <v>115.023</v>
       </c>
       <c r="H7">

--- a/TracesLength.xlsx
+++ b/TracesLength.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\UNI\7pusmetis\Semestro projektas\FusionVision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3387D4-FFF0-416E-B036-5D38B4F0762E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBCC710-8C56-4A51-8AED-907E82783C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,7 +943,7 @@
   <dimension ref="A1:R82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,7 +1137,7 @@
         <v>20</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G6:G16" si="0">C7+E7+F7</f>
+        <f t="shared" ref="G7:G16" si="0">C7+E7+F7</f>
         <v>115.023</v>
       </c>
       <c r="H7">
